--- a/satd_issue_dataset_PHP_tsuji.xlsx
+++ b/satd_issue_dataset_PHP_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FF79CE-15BE-104C-A628-8BBFA19A157C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBAE289-9A67-E04E-AEAA-325A902DF6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14320" yWindow="-28300" windowWidth="33720" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="320">
   <si>
     <t>Issue</t>
   </si>
@@ -1035,6 +1035,121 @@
   <si>
     <t>[Content]サーバー上で削除されたファイルを複製します
 [Class]ファイルの管理</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]LDAP::hasPagedResultSupport() は、サポートされている PHP バージョンに常に存在するため、削除します
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]連携モノをつなぐ
+[Class]機能の統合，アイデア</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Requirement</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]重複するスラッシュは、パス パラメーターから削除されます
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ハンドルバー テンプレートの CI ステップを追加
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ファイルの外部アプリが外部アプリの名前空間を悪用しています
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]php7.0 サポートのドロップを評価する
+[Class]ツールのサポート</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]クリーンアップ ミドルウェアの登録
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CI ジョブを追加して、修正コミットを確認します
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]php-intl が見つからない場合に管理者の警告を表示する
+[Class]エラー処理の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不必要な再スキャンにより、ユーザーのリスト表示が遅くなります
+[Class]パフォーマンスの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]連絡先メニューをビューに移動 
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]twofactor_providers にインデックスがありません: uid
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]npm と webpack を使用して、サーバーの依存関係とスクリプトをインストールしてバンドルします
+[Class]ツールの利用</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Security</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Imagickをより良いものに置き換えます
+[Class]ツールの置き換え，セキュリティの問題</t>
+    <rPh sb="54" eb="56">
+      <t xml:space="preserve">モンダイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ビルドの依存関係をメインの package.json に移動
+[Class]ビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Build</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]webpack/sass-loader を使用して scss ファイルをプリコンパイルする
+[Class]ビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]jsTimezoneDetect の必要性を評価する
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TrashbinTest::testExpireOldFiles が CI で失敗する
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]appserver.io の Nextcloud
+[Class]パフォーマンスの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TemplateResponses 以外のコンテンツ セキュリティ ポリシー
+[Class]セキュリティの改善</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2002,8 +2117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2717,15 +2832,18 @@
         <v>296</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="42">
+    <row r="51" spans="1:6" ht="63">
       <c r="A51">
         <v>10923</v>
       </c>
       <c r="B51" t="s">
         <v>51</v>
       </c>
+      <c r="C51" t="s">
+        <v>241</v>
+      </c>
       <c r="F51" s="2" t="s">
-        <v>239</v>
+        <v>297</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="42">
@@ -2735,8 +2853,14 @@
       <c r="B52" t="s">
         <v>52</v>
       </c>
+      <c r="C52" t="s">
+        <v>299</v>
+      </c>
+      <c r="D52" t="s">
+        <v>263</v>
+      </c>
       <c r="F52" s="2" t="s">
-        <v>239</v>
+        <v>298</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="42">
@@ -2746,8 +2870,11 @@
       <c r="B53" t="s">
         <v>53</v>
       </c>
+      <c r="C53" t="s">
+        <v>241</v>
+      </c>
       <c r="F53" s="2" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="42">
@@ -2757,8 +2884,11 @@
       <c r="B54" t="s">
         <v>54</v>
       </c>
+      <c r="C54" t="s">
+        <v>247</v>
+      </c>
       <c r="F54" s="2" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="42">
@@ -2768,8 +2898,11 @@
       <c r="B55" t="s">
         <v>55</v>
       </c>
+      <c r="C55" t="s">
+        <v>241</v>
+      </c>
       <c r="F55" s="2" t="s">
-        <v>239</v>
+        <v>302</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="42">
@@ -2779,8 +2912,14 @@
       <c r="B56" t="s">
         <v>56</v>
       </c>
+      <c r="C56" t="s">
+        <v>243</v>
+      </c>
+      <c r="D56" t="s">
+        <v>299</v>
+      </c>
       <c r="F56" s="2" t="s">
-        <v>239</v>
+        <v>303</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="42">
@@ -2790,8 +2929,11 @@
       <c r="B57" t="s">
         <v>57</v>
       </c>
+      <c r="C57" t="s">
+        <v>241</v>
+      </c>
       <c r="F57" s="2" t="s">
-        <v>239</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="42">
@@ -2801,8 +2943,11 @@
       <c r="B58" t="s">
         <v>58</v>
       </c>
+      <c r="C58" t="s">
+        <v>247</v>
+      </c>
       <c r="F58" s="2" t="s">
-        <v>239</v>
+        <v>305</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="42">
@@ -2812,8 +2957,11 @@
       <c r="B59" t="s">
         <v>59</v>
       </c>
+      <c r="C59" t="s">
+        <v>241</v>
+      </c>
       <c r="F59" s="2" t="s">
-        <v>239</v>
+        <v>306</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="42">
@@ -2823,8 +2971,11 @@
       <c r="B60" t="s">
         <v>60</v>
       </c>
+      <c r="C60" t="s">
+        <v>256</v>
+      </c>
       <c r="F60" s="2" t="s">
-        <v>239</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="42">
@@ -2834,8 +2985,11 @@
       <c r="B61" t="s">
         <v>61</v>
       </c>
+      <c r="C61" t="s">
+        <v>254</v>
+      </c>
       <c r="F61" s="2" t="s">
-        <v>239</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="42">
@@ -2845,19 +2999,25 @@
       <c r="B62" t="s">
         <v>62</v>
       </c>
+      <c r="C62" t="s">
+        <v>241</v>
+      </c>
       <c r="F62" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="42">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="63">
       <c r="A63">
         <v>13071</v>
       </c>
       <c r="B63" t="s">
         <v>63</v>
       </c>
+      <c r="C63" t="s">
+        <v>243</v>
+      </c>
       <c r="F63" s="2" t="s">
-        <v>239</v>
+        <v>310</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="42">
@@ -2867,8 +3027,14 @@
       <c r="B64" t="s">
         <v>64</v>
       </c>
+      <c r="C64" t="s">
+        <v>243</v>
+      </c>
+      <c r="D64" t="s">
+        <v>311</v>
+      </c>
       <c r="F64" s="2" t="s">
-        <v>239</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="42">
@@ -2878,8 +3044,11 @@
       <c r="B65" t="s">
         <v>65</v>
       </c>
+      <c r="C65" t="s">
+        <v>314</v>
+      </c>
       <c r="F65" s="2" t="s">
-        <v>239</v>
+        <v>313</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="42">
@@ -2889,8 +3058,11 @@
       <c r="B66" t="s">
         <v>66</v>
       </c>
+      <c r="C66" t="s">
+        <v>314</v>
+      </c>
       <c r="F66" s="2" t="s">
-        <v>239</v>
+        <v>315</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="42">
@@ -2900,8 +3072,14 @@
       <c r="B67" t="s">
         <v>67</v>
       </c>
+      <c r="C67" t="s">
+        <v>241</v>
+      </c>
+      <c r="D67" t="s">
+        <v>243</v>
+      </c>
       <c r="F67" s="2" t="s">
-        <v>239</v>
+        <v>316</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="42">
@@ -2911,8 +3089,11 @@
       <c r="B68" t="s">
         <v>68</v>
       </c>
+      <c r="C68" t="s">
+        <v>247</v>
+      </c>
       <c r="F68" s="2" t="s">
-        <v>239</v>
+        <v>317</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="42">
@@ -2922,8 +3103,11 @@
       <c r="B69" t="s">
         <v>69</v>
       </c>
+      <c r="C69" t="s">
+        <v>256</v>
+      </c>
       <c r="F69" s="2" t="s">
-        <v>239</v>
+        <v>318</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="42">
@@ -2933,8 +3117,11 @@
       <c r="B70" t="s">
         <v>70</v>
       </c>
+      <c r="C70" t="s">
+        <v>311</v>
+      </c>
       <c r="F70" s="2" t="s">
-        <v>239</v>
+        <v>319</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="42">

--- a/satd_issue_dataset_PHP_tsuji.xlsx
+++ b/satd_issue_dataset_PHP_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBAE289-9A67-E04E-AEAA-325A902DF6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D325FB6F-09EB-6C48-B779-077024D9A40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14320" yWindow="-28300" windowWidth="33720" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="351">
   <si>
     <t>Issue</t>
   </si>
@@ -1150,6 +1150,172 @@
   <si>
     <t>[Content]TemplateResponses 以外のコンテンツ セキュリティ ポリシー
 [Class]セキュリティの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]アセンブリ ストリームをシーク可能にする
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]phpunit 7 に移動
+[Class]ツールの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]開発インスタンスの Nextcloud 更新エクスペリエンス
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Vueログインページ
+[Class]ツールの置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]アプリ管理サイドバーが準拠していません
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]サーバーとアプリの js API の再形成
+[Class]ドキュメントの追加，コードの改善</t>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>色々含まれてるのでOtherになるかも</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イロイロフクマレテルノデ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]未来への移行: PHP を Golang に置き換えます
+[Class]言語の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]stable17 でアプリとテスト ターゲットのマスター バージョンを更新する
+[Class]ツールの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]安定版 18 に対するアプリのテスト + アプリのマスター ブランチでのバンプ バージョン
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]DI コンテナーでの型指定されていないサービス インジェクションを段階的に廃止する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]18.0.1 数千のログ エントリ「アプリケーションは query() を介してではなく、直接セットアップされます」により、アップグレード後にログ ファイルが 4 GB 以上になる
+[Class]パフォーマンスの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ContactsMenu は _all_ 件の連絡先を照会および処理している
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]アプリのブートストラップ コードの整理
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CountWrapper stream_seek(0) は $readCount をリセットする必要がある
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Stable20 の分岐 PR
+[Class]その他</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ログメッセージ: "/appinfo/app.php is deprecated"
+[Class]機能の修正</t>
+    <rPh sb="58" eb="60">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]login.html の「no-cache, no-store, must-revalidate」を削除
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]OCP\Remote を廃止しますか?
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]patchwork/jsqueeze は非推奨ですが、使用されていません
+[Class]非推奨への対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]同期するファイルのプリロードと、変更されたすべてのファイルのリスト
+[Class]パフォーマンスの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]files_sharing 定数を @nextcloud/sharing タイプに置き換え
+[Class]型の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]PHP8.1をサポート
+[Class]言語のサポート</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]stable23 ブランチが分割されました
+[Class]その他</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UserMetaModel::setUserMeta() での不適切な try/catch の使用
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]グローバル getRecord 関数の廃止
+[Class]不要な関数の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Controller::renderData() は、特権データを漏らす可能性のあるブラックリストを使用しています
+[Class]セキュリティの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]jquery.popup.js で非推奨の jQuery.selector を削除
+[Class]非推奨への対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UpdateModel とコア関数 proxyRequest() + proxyHead() を削除
+[Class]不要な関数の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]自動アーカイブの除外機能を削除する
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]非推奨のイベント引数は引き続き使用されます
+[Class]非推奨への対応</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2117,8 +2283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3131,8 +3297,11 @@
       <c r="B71" t="s">
         <v>71</v>
       </c>
+      <c r="C71" t="s">
+        <v>241</v>
+      </c>
       <c r="F71" s="2" t="s">
-        <v>239</v>
+        <v>320</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="42">
@@ -3142,8 +3311,11 @@
       <c r="B72" t="s">
         <v>72</v>
       </c>
+      <c r="C72" t="s">
+        <v>243</v>
+      </c>
       <c r="F72" s="2" t="s">
-        <v>239</v>
+        <v>321</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="42">
@@ -3153,8 +3325,11 @@
       <c r="B73" t="s">
         <v>73</v>
       </c>
+      <c r="C73" t="s">
+        <v>241</v>
+      </c>
       <c r="F73" s="2" t="s">
-        <v>239</v>
+        <v>322</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="42">
@@ -3164,8 +3339,11 @@
       <c r="B74" t="s">
         <v>74</v>
       </c>
+      <c r="C74" t="s">
+        <v>243</v>
+      </c>
       <c r="F74" s="2" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="42">
@@ -3175,8 +3353,14 @@
       <c r="B75" t="s">
         <v>75</v>
       </c>
+      <c r="C75" t="s">
+        <v>241</v>
+      </c>
+      <c r="D75" t="s">
+        <v>243</v>
+      </c>
       <c r="F75" s="2" t="s">
-        <v>239</v>
+        <v>324</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="42">
@@ -3186,8 +3370,17 @@
       <c r="B76" t="s">
         <v>76</v>
       </c>
+      <c r="C76" t="s">
+        <v>252</v>
+      </c>
+      <c r="D76" t="s">
+        <v>241</v>
+      </c>
+      <c r="E76" t="s">
+        <v>326</v>
+      </c>
       <c r="F76" s="2" t="s">
-        <v>239</v>
+        <v>325</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="42">
@@ -3197,8 +3390,11 @@
       <c r="B77" t="s">
         <v>77</v>
       </c>
+      <c r="C77" t="s">
+        <v>243</v>
+      </c>
       <c r="F77" s="2" t="s">
-        <v>239</v>
+        <v>327</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="42">
@@ -3208,41 +3404,53 @@
       <c r="B78" t="s">
         <v>78</v>
       </c>
+      <c r="C78" t="s">
+        <v>243</v>
+      </c>
       <c r="F78" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="42">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="63">
       <c r="A79">
         <v>19013</v>
       </c>
       <c r="B79" t="s">
         <v>79</v>
       </c>
+      <c r="C79" t="s">
+        <v>247</v>
+      </c>
       <c r="F79" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="42">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="63">
       <c r="A80">
         <v>19345</v>
       </c>
       <c r="B80" t="s">
         <v>80</v>
       </c>
+      <c r="C80" t="s">
+        <v>241</v>
+      </c>
       <c r="F80" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="42">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="63">
       <c r="A81">
         <v>19661</v>
       </c>
       <c r="B81" t="s">
         <v>81</v>
       </c>
+      <c r="C81" t="s">
+        <v>256</v>
+      </c>
       <c r="F81" s="2" t="s">
-        <v>239</v>
+        <v>331</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="42">
@@ -3252,8 +3460,11 @@
       <c r="B82" t="s">
         <v>82</v>
       </c>
+      <c r="C82" t="s">
+        <v>241</v>
+      </c>
       <c r="F82" s="2" t="s">
-        <v>239</v>
+        <v>332</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="42">
@@ -3263,8 +3474,11 @@
       <c r="B83" t="s">
         <v>83</v>
       </c>
+      <c r="C83" t="s">
+        <v>241</v>
+      </c>
       <c r="F83" s="2" t="s">
-        <v>239</v>
+        <v>333</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="42">
@@ -3274,8 +3488,11 @@
       <c r="B84" t="s">
         <v>84</v>
       </c>
+      <c r="C84" t="s">
+        <v>241</v>
+      </c>
       <c r="F84" s="2" t="s">
-        <v>239</v>
+        <v>334</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="42">
@@ -3285,8 +3502,11 @@
       <c r="B85" t="s">
         <v>85</v>
       </c>
+      <c r="C85" t="s">
+        <v>263</v>
+      </c>
       <c r="F85" s="2" t="s">
-        <v>239</v>
+        <v>335</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="42">
@@ -3296,8 +3516,11 @@
       <c r="B86" t="s">
         <v>86</v>
       </c>
+      <c r="C86" t="s">
+        <v>241</v>
+      </c>
       <c r="F86" s="2" t="s">
-        <v>239</v>
+        <v>336</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="42">
@@ -3307,8 +3530,11 @@
       <c r="B87" t="s">
         <v>87</v>
       </c>
+      <c r="C87" t="s">
+        <v>241</v>
+      </c>
       <c r="F87" s="2" t="s">
-        <v>239</v>
+        <v>337</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="42">
@@ -3318,8 +3544,11 @@
       <c r="B88" t="s">
         <v>88</v>
       </c>
+      <c r="C88" t="s">
+        <v>241</v>
+      </c>
       <c r="F88" s="2" t="s">
-        <v>239</v>
+        <v>338</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="42">
@@ -3329,8 +3558,11 @@
       <c r="B89" t="s">
         <v>89</v>
       </c>
+      <c r="C89" t="s">
+        <v>243</v>
+      </c>
       <c r="F89" s="2" t="s">
-        <v>239</v>
+        <v>339</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="42">
@@ -3340,8 +3572,11 @@
       <c r="B90" t="s">
         <v>90</v>
       </c>
+      <c r="C90" t="s">
+        <v>256</v>
+      </c>
       <c r="F90" s="2" t="s">
-        <v>239</v>
+        <v>340</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="42">
@@ -3351,8 +3586,11 @@
       <c r="B91" t="s">
         <v>91</v>
       </c>
+      <c r="C91" t="s">
+        <v>241</v>
+      </c>
       <c r="F91" s="2" t="s">
-        <v>239</v>
+        <v>341</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="42">
@@ -3362,8 +3600,11 @@
       <c r="B92" t="s">
         <v>92</v>
       </c>
+      <c r="C92" t="s">
+        <v>243</v>
+      </c>
       <c r="F92" s="2" t="s">
-        <v>239</v>
+        <v>342</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="42">
@@ -3373,8 +3614,11 @@
       <c r="B93" t="s">
         <v>93</v>
       </c>
+      <c r="C93" t="s">
+        <v>263</v>
+      </c>
       <c r="F93" s="2" t="s">
-        <v>239</v>
+        <v>343</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="42">
@@ -3384,8 +3628,11 @@
       <c r="B94" t="s">
         <v>94</v>
       </c>
+      <c r="C94" t="s">
+        <v>241</v>
+      </c>
       <c r="F94" s="2" t="s">
-        <v>239</v>
+        <v>344</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="42">
@@ -3395,19 +3642,25 @@
       <c r="B95" t="s">
         <v>95</v>
       </c>
+      <c r="C95" t="s">
+        <v>241</v>
+      </c>
       <c r="F95" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="42">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="63">
       <c r="A96">
         <v>3044</v>
       </c>
       <c r="B96" t="s">
         <v>96</v>
       </c>
+      <c r="C96" t="s">
+        <v>311</v>
+      </c>
       <c r="F96" s="2" t="s">
-        <v>239</v>
+        <v>346</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="42">
@@ -3417,8 +3670,11 @@
       <c r="B97" t="s">
         <v>97</v>
       </c>
+      <c r="C97" t="s">
+        <v>243</v>
+      </c>
       <c r="F97" s="2" t="s">
-        <v>239</v>
+        <v>347</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="42">
@@ -3428,8 +3684,11 @@
       <c r="B98" t="s">
         <v>98</v>
       </c>
+      <c r="C98" t="s">
+        <v>241</v>
+      </c>
       <c r="F98" s="2" t="s">
-        <v>239</v>
+        <v>348</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="42">
@@ -3439,8 +3698,11 @@
       <c r="B99" t="s">
         <v>99</v>
       </c>
+      <c r="C99" t="s">
+        <v>241</v>
+      </c>
       <c r="F99" s="2" t="s">
-        <v>239</v>
+        <v>349</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="42">
@@ -3450,8 +3712,11 @@
       <c r="B100" t="s">
         <v>100</v>
       </c>
+      <c r="C100" t="s">
+        <v>243</v>
+      </c>
       <c r="F100" s="2" t="s">
-        <v>239</v>
+        <v>350</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="42">

--- a/satd_issue_dataset_PHP_tsuji.xlsx
+++ b/satd_issue_dataset_PHP_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D325FB6F-09EB-6C48-B779-077024D9A40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850C594B-D601-8D4E-B648-4DF8E05422BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14320" yWindow="-28300" windowWidth="33720" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="401">
   <si>
     <t>Issue</t>
   </si>
@@ -1316,6 +1316,274 @@
   <si>
     <t>[Content]非推奨のイベント引数は引き続き使用されます
 [Class]非推奨への対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UpdateCountComments/UpdateCountDiscussions メソッドの命名がわかりにくい
+[Class]メソッド名の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]空のディスカッション タイトルは、ビューではなくモデルで修正する必要がある
+[Class]名前の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Gdn_Router::_parseRoute のシリアル化を削除
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TagModel の saveDiscussion() メソッドのリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]API v2 での CORS サポートの単体テストの追加
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]プラグインとアプリケーションの oldType クラッジを削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]psr/コンテナに切り替える
+[Class]ツールの置き換え</t>
+    <rPh sb="35" eb="36">
+      <t xml:space="preserve">オキカエ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]URL の生成方法を再考する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Gdn_Email から EmailTemplate を削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]APIv2 エンドポイントのページネーション ユーティリティのテストを追加する
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]フェーズ アウト Garden.SignIn.Allow パーミッション
+[Class]権限の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]VanillaStats プラグインが通知をスローする (Vanilla 2.5)
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]#7179 を元に戻す
+[Class]その他</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]書き換えられない URL のサポートを終了
+[Class]サポートの中止</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Gdn_Factory を使用して残りのアイテムを移動しコンテナを使用します
+[Class]非推奨への対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リファクタリング エラーとローダー クラス名
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]グローバル t() 関数を非推奨にし、可能であればその呼び出しを取り除く
+[Class]不要な関数の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]グローバルな c() 関数を非推奨にし、可能な場合はその呼び出しを取り除く
+[Class]不要な関数の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]グローバルな saveToConfig() 関数を非推奨にし、可能な場合はその呼び出しを取り除く
+[Class]不要な関数の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]すべてのグローバル関数を非推奨にする
+[Class]不要な関数の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]translateContent() グローバル関数の廃止
+[Class]不要な関数の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]swagger doc 生成を暗黙的ではなく明示的にする
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]古い redux ユーティリティ メソッドを削除する
+[Class]不要なメソッドの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Google Plus ログインは 2019 年 1 月 29 日までに廃止される
+[Class]ツールへの対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CommentTest::testPost オーバーライドには、AbstractResourceTest でのクラッジが必要です
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]typescript の循環依存関係を監査して削除する
+[Class]依存関係の削除</t>
+    <rPh sb="44" eb="48">
+      <t xml:space="preserve">イソンカンケイノ </t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ProxyRequest の統合テストを作成
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]統合テストをマークダウン モジュールに追加する
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ガーデンコンテナのバージョンを更新する
+[Class]ツールの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ストーリー ブック - サイト ナビゲーション
+[Class]ドキュメントの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ストーリー ブック - カテゴリ ページの整理
+[Class]ドキュメントの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]EmailTemplate クラスのテストを追加する 
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]3 つの既存のビューを twig を使用するように変換し、ドキュメントを作成
+[Class]機能の改善，ドキュメントの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]functions.compatibility.php の「空の値からデフォルト オブジェクトを作成しています」という警告
+[Class]警告への対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]GDN_Format での「空の文字列を文字列オフセットに割り当てることはできません」という警告
+[Class]警告への対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Gdn_Dispatcher の「rawurlencode() はパラメーター 1 が文字列であることを期待しています」という警告
+[Class]警告への対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]DateTimeFormatter::dateTimeToTimeStamp() RFC のリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Gdn_Request に ServerRequestInterface を実装させ、コンテナにマップする
+[Class]機能の実装</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Gdn_Request クラスのテストを追加して、将来の PR で BC を確実にする
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]エントリ/サインインおよびエントリ/登録オーバーライド リダイレクトが適切なキャッシュ ヘッダーを設定する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コメントは /api/v2/comments?discussionID=??? の dateInserted でソートする必要がある
+[Class]コメントの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]PHP 7.4 で動作するテストを入手する
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]フレームワークの依存関係を持つ関数の functions.framework.php を作成
+[Class]関数の移行</t>
+    <rPh sb="63" eb="65">
+      <t xml:space="preserve">カンスウノ </t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Gdn_Controller のより良いテスト ハーネスを作成する
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]新しいテストに適したクラス
+[Class]テストの準備</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]30 分タイムゾーンのサポートを追加
+[Class]機能の追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]バナー テキストの影が強すぎる
+[Class]UIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]「UTF-8」パラメーターは、常に htmlentities および htmlspecialchars に含める必要がある
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CategoryModel からのユーザー ポイント イベントで元のカテゴリ ID を追跡する方法がない
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]yarn check-typesOOM エラー
+[Class]ツールのアップデート</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2283,8 +2551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D155" sqref="D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3726,8 +3994,11 @@
       <c r="B101" t="s">
         <v>101</v>
       </c>
+      <c r="C101" t="s">
+        <v>241</v>
+      </c>
       <c r="F101" s="2" t="s">
-        <v>239</v>
+        <v>351</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="42">
@@ -3737,8 +4008,11 @@
       <c r="B102" t="s">
         <v>102</v>
       </c>
+      <c r="C102" t="s">
+        <v>241</v>
+      </c>
       <c r="F102" s="2" t="s">
-        <v>239</v>
+        <v>352</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="42">
@@ -3748,8 +4022,11 @@
       <c r="B103" t="s">
         <v>103</v>
       </c>
+      <c r="C103" t="s">
+        <v>241</v>
+      </c>
       <c r="F103" s="2" t="s">
-        <v>239</v>
+        <v>353</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="42">
@@ -3759,8 +4036,11 @@
       <c r="B104" t="s">
         <v>104</v>
       </c>
+      <c r="C104" t="s">
+        <v>241</v>
+      </c>
       <c r="F104" s="2" t="s">
-        <v>239</v>
+        <v>354</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="42">
@@ -3770,8 +4050,11 @@
       <c r="B105" t="s">
         <v>105</v>
       </c>
+      <c r="C105" t="s">
+        <v>247</v>
+      </c>
       <c r="F105" s="2" t="s">
-        <v>239</v>
+        <v>355</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="42">
@@ -3781,8 +4064,11 @@
       <c r="B106" t="s">
         <v>106</v>
       </c>
+      <c r="C106" t="s">
+        <v>241</v>
+      </c>
       <c r="F106" s="2" t="s">
-        <v>239</v>
+        <v>356</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="42">
@@ -3792,8 +4078,11 @@
       <c r="B107" t="s">
         <v>107</v>
       </c>
+      <c r="C107" t="s">
+        <v>243</v>
+      </c>
       <c r="F107" s="2" t="s">
-        <v>239</v>
+        <v>357</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="42">
@@ -3803,8 +4092,11 @@
       <c r="B108" t="s">
         <v>108</v>
       </c>
+      <c r="C108" t="s">
+        <v>241</v>
+      </c>
       <c r="F108" s="2" t="s">
-        <v>239</v>
+        <v>358</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="42">
@@ -3814,8 +4106,11 @@
       <c r="B109" t="s">
         <v>109</v>
       </c>
+      <c r="C109" t="s">
+        <v>241</v>
+      </c>
       <c r="F109" s="2" t="s">
-        <v>239</v>
+        <v>359</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="42">
@@ -3825,8 +4120,11 @@
       <c r="B110" t="s">
         <v>110</v>
       </c>
+      <c r="C110" t="s">
+        <v>247</v>
+      </c>
       <c r="F110" s="2" t="s">
-        <v>239</v>
+        <v>360</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="42">
@@ -3836,8 +4134,11 @@
       <c r="B111" t="s">
         <v>111</v>
       </c>
+      <c r="C111" t="s">
+        <v>241</v>
+      </c>
       <c r="F111" s="2" t="s">
-        <v>239</v>
+        <v>361</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="42">
@@ -3847,8 +4148,11 @@
       <c r="B112" t="s">
         <v>112</v>
       </c>
+      <c r="C112" t="s">
+        <v>241</v>
+      </c>
       <c r="F112" s="2" t="s">
-        <v>239</v>
+        <v>362</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="42">
@@ -3858,8 +4162,11 @@
       <c r="B113" t="s">
         <v>113</v>
       </c>
+      <c r="C113" t="s">
+        <v>263</v>
+      </c>
       <c r="F113" s="2" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="42">
@@ -3869,8 +4176,14 @@
       <c r="B114" t="s">
         <v>114</v>
       </c>
+      <c r="C114" t="s">
+        <v>243</v>
+      </c>
+      <c r="D114" t="s">
+        <v>241</v>
+      </c>
       <c r="F114" s="2" t="s">
-        <v>239</v>
+        <v>364</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="42">
@@ -3880,8 +4193,11 @@
       <c r="B115" t="s">
         <v>115</v>
       </c>
+      <c r="C115" t="s">
+        <v>243</v>
+      </c>
       <c r="F115" s="2" t="s">
-        <v>239</v>
+        <v>365</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="42">
@@ -3891,8 +4207,11 @@
       <c r="B116" t="s">
         <v>116</v>
       </c>
+      <c r="C116" t="s">
+        <v>241</v>
+      </c>
       <c r="F116" s="2" t="s">
-        <v>239</v>
+        <v>366</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="42">
@@ -3902,8 +4221,11 @@
       <c r="B117" t="s">
         <v>117</v>
       </c>
+      <c r="C117" t="s">
+        <v>241</v>
+      </c>
       <c r="F117" s="2" t="s">
-        <v>239</v>
+        <v>367</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="42">
@@ -3913,19 +4235,25 @@
       <c r="B118" t="s">
         <v>118</v>
       </c>
+      <c r="C118" t="s">
+        <v>241</v>
+      </c>
       <c r="F118" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="42">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="63">
       <c r="A119">
         <v>7694</v>
       </c>
       <c r="B119" t="s">
         <v>119</v>
       </c>
+      <c r="C119" t="s">
+        <v>241</v>
+      </c>
       <c r="F119" s="2" t="s">
-        <v>239</v>
+        <v>369</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="42">
@@ -3935,8 +4263,11 @@
       <c r="B120" t="s">
         <v>120</v>
       </c>
+      <c r="C120" t="s">
+        <v>241</v>
+      </c>
       <c r="F120" s="2" t="s">
-        <v>239</v>
+        <v>370</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="42">
@@ -3946,8 +4277,11 @@
       <c r="B121" t="s">
         <v>121</v>
       </c>
+      <c r="C121" t="s">
+        <v>241</v>
+      </c>
       <c r="F121" s="2" t="s">
-        <v>239</v>
+        <v>371</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="42">
@@ -3957,8 +4291,11 @@
       <c r="B122" t="s">
         <v>122</v>
       </c>
+      <c r="C122" t="s">
+        <v>241</v>
+      </c>
       <c r="F122" s="2" t="s">
-        <v>239</v>
+        <v>372</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="42">
@@ -3968,8 +4305,11 @@
       <c r="B123" t="s">
         <v>123</v>
       </c>
+      <c r="C123" t="s">
+        <v>241</v>
+      </c>
       <c r="F123" s="2" t="s">
-        <v>239</v>
+        <v>373</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="42">
@@ -3979,19 +4319,25 @@
       <c r="B124" t="s">
         <v>124</v>
       </c>
+      <c r="C124" t="s">
+        <v>243</v>
+      </c>
       <c r="F124" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="42">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="63">
       <c r="A125">
         <v>8199</v>
       </c>
       <c r="B125" t="s">
         <v>125</v>
       </c>
+      <c r="C125" t="s">
+        <v>247</v>
+      </c>
       <c r="F125" s="2" t="s">
-        <v>239</v>
+        <v>375</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="42">
@@ -4001,8 +4347,11 @@
       <c r="B126" t="s">
         <v>126</v>
       </c>
+      <c r="C126" t="s">
+        <v>241</v>
+      </c>
       <c r="F126" s="2" t="s">
-        <v>239</v>
+        <v>376</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="42">
@@ -4012,8 +4361,11 @@
       <c r="B127" t="s">
         <v>127</v>
       </c>
+      <c r="C127" t="s">
+        <v>247</v>
+      </c>
       <c r="F127" s="2" t="s">
-        <v>239</v>
+        <v>377</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="42">
@@ -4023,8 +4375,11 @@
       <c r="B128" t="s">
         <v>128</v>
       </c>
+      <c r="C128" t="s">
+        <v>247</v>
+      </c>
       <c r="F128" s="2" t="s">
-        <v>239</v>
+        <v>378</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="42">
@@ -4034,8 +4389,11 @@
       <c r="B129" t="s">
         <v>129</v>
       </c>
+      <c r="C129" t="s">
+        <v>243</v>
+      </c>
       <c r="F129" s="2" t="s">
-        <v>239</v>
+        <v>379</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="42">
@@ -4045,8 +4403,11 @@
       <c r="B130" t="s">
         <v>130</v>
       </c>
+      <c r="C130" t="s">
+        <v>252</v>
+      </c>
       <c r="F130" s="2" t="s">
-        <v>239</v>
+        <v>380</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="42">
@@ -4056,8 +4417,11 @@
       <c r="B131" t="s">
         <v>131</v>
       </c>
+      <c r="C131" t="s">
+        <v>252</v>
+      </c>
       <c r="F131" s="2" t="s">
-        <v>239</v>
+        <v>381</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="42">
@@ -4067,8 +4431,11 @@
       <c r="B132" t="s">
         <v>132</v>
       </c>
+      <c r="C132" t="s">
+        <v>247</v>
+      </c>
       <c r="F132" s="2" t="s">
-        <v>239</v>
+        <v>382</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="42">
@@ -4078,41 +4445,56 @@
       <c r="B133" t="s">
         <v>133</v>
       </c>
+      <c r="C133" t="s">
+        <v>241</v>
+      </c>
+      <c r="D133" t="s">
+        <v>252</v>
+      </c>
       <c r="F133" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="42">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="63">
       <c r="A134">
         <v>9259</v>
       </c>
       <c r="B134" t="s">
         <v>134</v>
       </c>
+      <c r="C134" t="s">
+        <v>241</v>
+      </c>
       <c r="F134" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="42">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="63">
       <c r="A135">
         <v>9260</v>
       </c>
       <c r="B135" t="s">
         <v>135</v>
       </c>
+      <c r="C135" t="s">
+        <v>241</v>
+      </c>
       <c r="F135" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="42">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="63">
       <c r="A136">
         <v>9261</v>
       </c>
       <c r="B136" t="s">
         <v>136</v>
       </c>
+      <c r="C136" t="s">
+        <v>241</v>
+      </c>
       <c r="F136" s="2" t="s">
-        <v>239</v>
+        <v>386</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="42">
@@ -4122,8 +4504,11 @@
       <c r="B137" t="s">
         <v>137</v>
       </c>
+      <c r="C137" t="s">
+        <v>241</v>
+      </c>
       <c r="F137" s="2" t="s">
-        <v>239</v>
+        <v>387</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="42">
@@ -4133,8 +4518,11 @@
       <c r="B138" t="s">
         <v>138</v>
       </c>
+      <c r="C138" t="s">
+        <v>241</v>
+      </c>
       <c r="F138" s="2" t="s">
-        <v>239</v>
+        <v>388</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="42">
@@ -4144,30 +4532,39 @@
       <c r="B139" t="s">
         <v>139</v>
       </c>
+      <c r="C139" t="s">
+        <v>247</v>
+      </c>
       <c r="F139" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="42">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="63">
       <c r="A140">
         <v>9669</v>
       </c>
       <c r="B140" t="s">
         <v>140</v>
       </c>
+      <c r="C140" t="s">
+        <v>241</v>
+      </c>
       <c r="F140" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="42">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="63">
       <c r="A141">
         <v>9673</v>
       </c>
       <c r="B141" t="s">
         <v>141</v>
       </c>
+      <c r="C141" t="s">
+        <v>252</v>
+      </c>
       <c r="F141" s="2" t="s">
-        <v>239</v>
+        <v>391</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="42">
@@ -4177,8 +4574,11 @@
       <c r="B142" t="s">
         <v>142</v>
       </c>
+      <c r="C142" t="s">
+        <v>247</v>
+      </c>
       <c r="F142" s="2" t="s">
-        <v>239</v>
+        <v>392</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="42">
@@ -4188,8 +4588,11 @@
       <c r="B143" t="s">
         <v>143</v>
       </c>
+      <c r="C143" t="s">
+        <v>241</v>
+      </c>
       <c r="F143" s="2" t="s">
-        <v>239</v>
+        <v>393</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="42">
@@ -4199,8 +4602,11 @@
       <c r="B144" t="s">
         <v>144</v>
       </c>
+      <c r="C144" t="s">
+        <v>247</v>
+      </c>
       <c r="F144" s="2" t="s">
-        <v>239</v>
+        <v>394</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="42">
@@ -4210,8 +4616,11 @@
       <c r="B145" t="s">
         <v>145</v>
       </c>
+      <c r="C145" t="s">
+        <v>247</v>
+      </c>
       <c r="F145" s="2" t="s">
-        <v>239</v>
+        <v>395</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="42">
@@ -4221,8 +4630,11 @@
       <c r="B146" t="s">
         <v>146</v>
       </c>
+      <c r="C146" t="s">
+        <v>241</v>
+      </c>
       <c r="F146" s="2" t="s">
-        <v>239</v>
+        <v>396</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="42">
@@ -4232,30 +4644,39 @@
       <c r="B147" t="s">
         <v>147</v>
       </c>
+      <c r="C147" t="s">
+        <v>254</v>
+      </c>
       <c r="F147" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="42">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="63">
       <c r="A148">
         <v>10388</v>
       </c>
       <c r="B148" t="s">
         <v>148</v>
       </c>
+      <c r="C148" t="s">
+        <v>241</v>
+      </c>
       <c r="F148" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="42">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="63">
       <c r="A149">
         <v>10750</v>
       </c>
       <c r="B149" t="s">
         <v>149</v>
       </c>
+      <c r="C149" t="s">
+        <v>241</v>
+      </c>
       <c r="F149" s="2" t="s">
-        <v>239</v>
+        <v>399</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="42">
@@ -4265,8 +4686,11 @@
       <c r="B150" t="s">
         <v>150</v>
       </c>
+      <c r="C150" t="s">
+        <v>243</v>
+      </c>
       <c r="F150" s="2" t="s">
-        <v>239</v>
+        <v>400</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="42">

--- a/satd_issue_dataset_PHP_tsuji.xlsx
+++ b/satd_issue_dataset_PHP_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850C594B-D601-8D4E-B648-4DF8E05422BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FE4D4C-B6E3-0D46-A50A-8EB8E518D432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14320" yWindow="-28300" windowWidth="33720" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="453">
   <si>
     <t>Issue</t>
   </si>
@@ -1584,6 +1584,273 @@
   <si>
     <t>[Content]yarn check-typesOOM エラー
 [Class]ツールのアップデート</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]訪問の場合と同様に、短い URL リストをフィルター処理するために使用される引数を DTO にラップする
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]可能であれば構造体を使用してデータをラップする
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Travis で Docker イメージをビルドする
+[Class]CIツールの変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]値オブジェクトと DTO の作成を改善する 
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]カスタム リポジトリの使用を調査する
+[Class]リポジトリの管理</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]predis から phpredis に移行する BC の方法を見つける
+[Class]ツールの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]API テストにミューテーション チェックを追加する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]PHPUnit アサーションへのすべてのアクセスを置き換えて、オブジェクト アクセスの代わりに静的アクセスを使用
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ShortUrl 関係の解決方法を改善する (ドメインとタグ)
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]最新のphpunitバージョンに更新
+[Class]ツールの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]crazy-max/ghaction-docker-buildx の代わりに docker/setup-buildx-action を使用するように Docker イメージのビルドを移行
+[Class]ビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リーグ/プレートへの依存を取り除く
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]クエリの QR コード URL でサイズ パラメータを提供するサポート
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]doctrine-specification パッケージをより広範に使用することにより、リポジトリとそのメソッド シグネチャを簡素化
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]camelCase の代わりに kebab-case を使用するようにすべての CLI コマンド フラグを変更
+[Class]コードスタイル</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Code Style</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]API テストの実行時に swoole ログをファイルに送信する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]エンドポイントと重複する CLI コマンドを再確認
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]happyr/doctrine-specification 2.0 への更新
+[Class]ツールの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]endroid/qr-code 4.0 のサポートを追加
+[Class]ツールのサポート</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]クラスにhasnull をチェックするメソッドがあり、それがget使用される場合の phpstan チェックを改善
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]infection 0.24 へのアップデート
+[Class]ツールのアップデート</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]PHP 8.1 で実験的ビルドを追加 
+[Class]ビルドの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]symfony/mercure 0.6 へのアップデート
+[Class]ツールのアップデート</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]phpstan 1.0 へのアップデート
+[Class]ツールのアップデート</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Symfony 6 コンポーネントへの更新
+[Class]ツールの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]symfony/console 6 への更新
+[Class]ツールの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]非推奨のものを削除
+[Class]非推奨への対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]いくつかの負荷テストを行い、パフォーマンスを改善
+[Class]パフォーマンスの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Docker イメージのサイズを縮小
+[Class]イメージの縮小，パフォーマンスの改善</t>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">シュクショウ </t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>_x0000_(_x0002__x0007_3</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]訪問のデフォルトのページネーションを変更し、デフォルトでアイテムの量を適切な値にする
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]PHP 8.0 のサポートを終了
+[Class]サポートの終了</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]phpunit テストを実行するように travis をセットアップする
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]has_role() を is_granted() に置き換え
+[Class]関数の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CHANGELOG.md を追加
+[Class]ファイルの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ロックボットの統合
+[Class]機能の統合</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]AvanzuAdminTheme を AdminLTE バンドルに置き換える
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]タイムシートの API で日付形式が混在している
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]設定入力時または顧客編集時の無限ロード
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]タグ入力を置換
+[Class]ライブラリの置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]マイナー: NewProject の通貨
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]更新後にタイムシート テーブルが空になる
+[ClassDBの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ページネーターを置き換える
+[Class]ツールの置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]mpdf v7.1.9 には php が必要です ... 7.4.1 は必要ありません
+[Class]ツールの利用</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]html-header と pdf-footer で異なる branding.company
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]プロジェクト終了と同時にエントリー不可
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]新しい SAML パッケージを使用する
+[Class]パッケージの使用</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>パッケージレベルだとDesign？</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]zend-ldap は非推奨です
+[Class]非推奨への対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]xlsx エクスポート レンダリングは、ユーザー設定の [エクスポートで小数期間を使用する] がオンになっている場合、タイムシートの小数期間をエクスポートしない
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]月の変わり目にダッシュボードに「間違った」データが表示される
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]チームリーダーの役割を持つユーザーは、すべての収益を表示できる
+[Class]機能の改善</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2551,8 +2818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D155" sqref="D155"/>
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C201" sqref="C201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4693,15 +4960,18 @@
         <v>400</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="42">
+    <row r="151" spans="1:6" ht="63">
       <c r="A151">
         <v>577</v>
       </c>
       <c r="B151" t="s">
         <v>151</v>
       </c>
+      <c r="C151" t="s">
+        <v>241</v>
+      </c>
       <c r="F151" s="2" t="s">
-        <v>239</v>
+        <v>401</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="42">
@@ -4711,8 +4981,11 @@
       <c r="B152" t="s">
         <v>152</v>
       </c>
+      <c r="C152" t="s">
+        <v>241</v>
+      </c>
       <c r="F152" s="2" t="s">
-        <v>239</v>
+        <v>402</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="42">
@@ -4722,8 +4995,11 @@
       <c r="B153" t="s">
         <v>153</v>
       </c>
+      <c r="C153" t="s">
+        <v>243</v>
+      </c>
       <c r="F153" s="2" t="s">
-        <v>239</v>
+        <v>403</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="42">
@@ -4733,8 +5009,11 @@
       <c r="B154" t="s">
         <v>154</v>
       </c>
+      <c r="C154" t="s">
+        <v>241</v>
+      </c>
       <c r="F154" s="2" t="s">
-        <v>239</v>
+        <v>404</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="42">
@@ -4744,8 +5023,14 @@
       <c r="B155" t="s">
         <v>155</v>
       </c>
+      <c r="C155" t="s">
+        <v>241</v>
+      </c>
+      <c r="D155" t="s">
+        <v>263</v>
+      </c>
       <c r="F155" s="2" t="s">
-        <v>239</v>
+        <v>405</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="42">
@@ -4755,8 +5040,11 @@
       <c r="B156" t="s">
         <v>156</v>
       </c>
+      <c r="C156" t="s">
+        <v>243</v>
+      </c>
       <c r="F156" s="2" t="s">
-        <v>239</v>
+        <v>406</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="42">
@@ -4766,19 +5054,25 @@
       <c r="B157" t="s">
         <v>157</v>
       </c>
+      <c r="C157" t="s">
+        <v>247</v>
+      </c>
       <c r="F157" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="42">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="63">
       <c r="A158">
         <v>847</v>
       </c>
       <c r="B158" t="s">
         <v>158</v>
       </c>
+      <c r="C158" t="s">
+        <v>241</v>
+      </c>
       <c r="F158" s="2" t="s">
-        <v>239</v>
+        <v>408</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="42">
@@ -4788,8 +5082,11 @@
       <c r="B159" t="s">
         <v>159</v>
       </c>
+      <c r="C159" t="s">
+        <v>241</v>
+      </c>
       <c r="F159" s="2" t="s">
-        <v>239</v>
+        <v>409</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="42">
@@ -4799,19 +5096,25 @@
       <c r="B160" t="s">
         <v>160</v>
       </c>
+      <c r="C160" t="s">
+        <v>243</v>
+      </c>
       <c r="F160" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="42">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="63">
       <c r="A161">
         <v>890</v>
       </c>
       <c r="B161" t="s">
         <v>161</v>
       </c>
+      <c r="C161" t="s">
+        <v>314</v>
+      </c>
       <c r="F161" s="2" t="s">
-        <v>239</v>
+        <v>411</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="42">
@@ -4821,8 +5124,11 @@
       <c r="B162" t="s">
         <v>162</v>
       </c>
+      <c r="C162" t="s">
+        <v>241</v>
+      </c>
       <c r="F162" s="2" t="s">
-        <v>239</v>
+        <v>412</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="42">
@@ -4832,30 +5138,39 @@
       <c r="B163" t="s">
         <v>163</v>
       </c>
+      <c r="C163" t="s">
+        <v>241</v>
+      </c>
       <c r="F163" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="42">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="63">
       <c r="A164">
         <v>954</v>
       </c>
       <c r="B164" t="s">
         <v>164</v>
       </c>
+      <c r="C164" t="s">
+        <v>241</v>
+      </c>
       <c r="F164" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="42">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="63">
       <c r="A165">
         <v>959</v>
       </c>
       <c r="B165" t="s">
         <v>165</v>
       </c>
+      <c r="C165" t="s">
+        <v>416</v>
+      </c>
       <c r="F165" s="2" t="s">
-        <v>239</v>
+        <v>415</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="42">
@@ -4865,8 +5180,11 @@
       <c r="B166" t="s">
         <v>166</v>
       </c>
+      <c r="C166" t="s">
+        <v>247</v>
+      </c>
       <c r="F166" s="2" t="s">
-        <v>239</v>
+        <v>417</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="42">
@@ -4876,8 +5194,11 @@
       <c r="B167" t="s">
         <v>167</v>
       </c>
+      <c r="C167" t="s">
+        <v>241</v>
+      </c>
       <c r="F167" s="2" t="s">
-        <v>239</v>
+        <v>418</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="42">
@@ -4887,8 +5208,11 @@
       <c r="B168" t="s">
         <v>168</v>
       </c>
+      <c r="C168" t="s">
+        <v>243</v>
+      </c>
       <c r="F168" s="2" t="s">
-        <v>239</v>
+        <v>419</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="42">
@@ -4898,19 +5222,25 @@
       <c r="B169" t="s">
         <v>169</v>
       </c>
+      <c r="C169" t="s">
+        <v>243</v>
+      </c>
       <c r="F169" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="42">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="63">
       <c r="A170">
         <v>1121</v>
       </c>
       <c r="B170" t="s">
         <v>170</v>
       </c>
+      <c r="C170" t="s">
+        <v>241</v>
+      </c>
       <c r="F170" s="2" t="s">
-        <v>239</v>
+        <v>421</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="42">
@@ -4920,8 +5250,11 @@
       <c r="B171" t="s">
         <v>171</v>
       </c>
+      <c r="C171" t="s">
+        <v>243</v>
+      </c>
       <c r="F171" s="2" t="s">
-        <v>239</v>
+        <v>422</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="42">
@@ -4931,8 +5264,11 @@
       <c r="B172" t="s">
         <v>172</v>
       </c>
+      <c r="C172" t="s">
+        <v>314</v>
+      </c>
       <c r="F172" s="2" t="s">
-        <v>239</v>
+        <v>423</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="42">
@@ -4942,8 +5278,11 @@
       <c r="B173" t="s">
         <v>173</v>
       </c>
+      <c r="C173" t="s">
+        <v>243</v>
+      </c>
       <c r="F173" s="2" t="s">
-        <v>239</v>
+        <v>424</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="42">
@@ -4953,8 +5292,11 @@
       <c r="B174" t="s">
         <v>174</v>
       </c>
+      <c r="C174" t="s">
+        <v>243</v>
+      </c>
       <c r="F174" s="2" t="s">
-        <v>239</v>
+        <v>425</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="42">
@@ -4964,8 +5306,11 @@
       <c r="B175" t="s">
         <v>175</v>
       </c>
+      <c r="C175" t="s">
+        <v>243</v>
+      </c>
       <c r="F175" s="2" t="s">
-        <v>239</v>
+        <v>426</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="42">
@@ -4975,8 +5320,11 @@
       <c r="B176" t="s">
         <v>176</v>
       </c>
+      <c r="C176" t="s">
+        <v>243</v>
+      </c>
       <c r="F176" s="2" t="s">
-        <v>239</v>
+        <v>427</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="42">
@@ -4986,8 +5334,11 @@
       <c r="B177" t="s">
         <v>177</v>
       </c>
+      <c r="C177" t="s">
+        <v>243</v>
+      </c>
       <c r="F177" s="2" t="s">
-        <v>239</v>
+        <v>428</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="42">
@@ -4997,8 +5348,11 @@
       <c r="B178" t="s">
         <v>178</v>
       </c>
+      <c r="C178" t="s">
+        <v>256</v>
+      </c>
       <c r="F178" s="2" t="s">
-        <v>239</v>
+        <v>429</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="42">
@@ -5008,19 +5362,28 @@
       <c r="B179" t="s">
         <v>179</v>
       </c>
+      <c r="C179" t="s">
+        <v>241</v>
+      </c>
+      <c r="D179" t="s">
+        <v>256</v>
+      </c>
       <c r="F179" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="42">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="63">
       <c r="A180">
         <v>1278</v>
       </c>
       <c r="B180" t="s">
         <v>180</v>
       </c>
+      <c r="C180" t="s">
+        <v>241</v>
+      </c>
       <c r="F180" s="2" t="s">
-        <v>239</v>
+        <v>431</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="42">
@@ -5030,8 +5393,11 @@
       <c r="B181" t="s">
         <v>181</v>
       </c>
+      <c r="C181" t="s">
+        <v>243</v>
+      </c>
       <c r="F181" s="2" t="s">
-        <v>239</v>
+        <v>432</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="42">
@@ -5041,8 +5407,11 @@
       <c r="B182" t="s">
         <v>182</v>
       </c>
+      <c r="C182" t="s">
+        <v>247</v>
+      </c>
       <c r="F182" s="2" t="s">
-        <v>239</v>
+        <v>433</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="42">
@@ -5052,8 +5421,11 @@
       <c r="B183" t="s">
         <v>183</v>
       </c>
+      <c r="C183" t="s">
+        <v>241</v>
+      </c>
       <c r="F183" s="2" t="s">
-        <v>239</v>
+        <v>434</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="42">
@@ -5063,8 +5435,11 @@
       <c r="B184" t="s">
         <v>184</v>
       </c>
+      <c r="C184" t="s">
+        <v>241</v>
+      </c>
       <c r="F184" s="2" t="s">
-        <v>239</v>
+        <v>435</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="42">
@@ -5074,8 +5449,11 @@
       <c r="B185" t="s">
         <v>185</v>
       </c>
+      <c r="C185" t="s">
+        <v>241</v>
+      </c>
       <c r="F185" s="2" t="s">
-        <v>239</v>
+        <v>436</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="42">
@@ -5085,8 +5463,11 @@
       <c r="B186" t="s">
         <v>186</v>
       </c>
+      <c r="C186" t="s">
+        <v>241</v>
+      </c>
       <c r="F186" s="2" t="s">
-        <v>239</v>
+        <v>437</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="42">
@@ -5096,8 +5477,11 @@
       <c r="B187" t="s">
         <v>187</v>
       </c>
+      <c r="C187" t="s">
+        <v>241</v>
+      </c>
       <c r="F187" s="2" t="s">
-        <v>239</v>
+        <v>438</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="42">
@@ -5107,8 +5491,11 @@
       <c r="B188" t="s">
         <v>188</v>
       </c>
+      <c r="C188" t="s">
+        <v>241</v>
+      </c>
       <c r="F188" s="2" t="s">
-        <v>239</v>
+        <v>439</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="42">
@@ -5118,8 +5505,11 @@
       <c r="B189" t="s">
         <v>189</v>
       </c>
+      <c r="C189" t="s">
+        <v>243</v>
+      </c>
       <c r="F189" s="2" t="s">
-        <v>239</v>
+        <v>440</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="42">
@@ -5129,8 +5519,11 @@
       <c r="B190" t="s">
         <v>190</v>
       </c>
+      <c r="C190" t="s">
+        <v>241</v>
+      </c>
       <c r="F190" s="2" t="s">
-        <v>239</v>
+        <v>441</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="42">
@@ -5140,8 +5533,11 @@
       <c r="B191" t="s">
         <v>191</v>
       </c>
+      <c r="C191" t="s">
+        <v>241</v>
+      </c>
       <c r="F191" s="2" t="s">
-        <v>239</v>
+        <v>442</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="42">
@@ -5151,8 +5547,11 @@
       <c r="B192" t="s">
         <v>192</v>
       </c>
+      <c r="C192" t="s">
+        <v>243</v>
+      </c>
       <c r="F192" s="2" t="s">
-        <v>239</v>
+        <v>443</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="42">
@@ -5162,8 +5561,11 @@
       <c r="B193" t="s">
         <v>193</v>
       </c>
+      <c r="C193" t="s">
+        <v>243</v>
+      </c>
       <c r="F193" s="2" t="s">
-        <v>239</v>
+        <v>444</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="42">
@@ -5173,8 +5575,11 @@
       <c r="B194" t="s">
         <v>194</v>
       </c>
+      <c r="C194" t="s">
+        <v>241</v>
+      </c>
       <c r="F194" s="2" t="s">
-        <v>239</v>
+        <v>445</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="42">
@@ -5184,8 +5589,11 @@
       <c r="B195" t="s">
         <v>195</v>
       </c>
+      <c r="C195" t="s">
+        <v>247</v>
+      </c>
       <c r="F195" s="2" t="s">
-        <v>239</v>
+        <v>446</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="42">
@@ -5195,8 +5603,17 @@
       <c r="B196" t="s">
         <v>196</v>
       </c>
+      <c r="C196" t="s">
+        <v>243</v>
+      </c>
+      <c r="D196" t="s">
+        <v>241</v>
+      </c>
+      <c r="E196" t="s">
+        <v>448</v>
+      </c>
       <c r="F196" s="2" t="s">
-        <v>239</v>
+        <v>447</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="42">
@@ -5206,19 +5623,25 @@
       <c r="B197" t="s">
         <v>197</v>
       </c>
+      <c r="C197" t="s">
+        <v>243</v>
+      </c>
       <c r="F197" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="42">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="63">
       <c r="A198">
         <v>1795</v>
       </c>
       <c r="B198" t="s">
         <v>198</v>
       </c>
+      <c r="C198" t="s">
+        <v>241</v>
+      </c>
       <c r="F198" s="2" t="s">
-        <v>239</v>
+        <v>450</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="42">
@@ -5228,8 +5651,14 @@
       <c r="B199" t="s">
         <v>199</v>
       </c>
+      <c r="C199" t="s">
+        <v>241</v>
+      </c>
+      <c r="D199" t="s">
+        <v>254</v>
+      </c>
       <c r="F199" s="2" t="s">
-        <v>239</v>
+        <v>451</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="42">
@@ -5239,8 +5668,11 @@
       <c r="B200" t="s">
         <v>200</v>
       </c>
+      <c r="C200" t="s">
+        <v>241</v>
+      </c>
       <c r="F200" s="2" t="s">
-        <v>239</v>
+        <v>452</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="42">
